--- a/static/file_download/course_import.xlsx
+++ b/static/file_download/course_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ash\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ash\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE25AA9-B280-42CD-BB1A-F49C1C28698C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AFB2AB-4073-41B5-975B-82826928DC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27675" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,15 @@
     <t>限选</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>1-C-333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周四第1,2节;周五第1,2节;{第1-18周}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业课</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,16 +480,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -608,21 +608,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{735986FF-3794-4741-88EF-894BB8259CC0}">
       <formula1>"限选"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{80AEEF99-DD0C-4F6E-95B3-B5963FBD27D3}">
       <formula1>"限选,必修,公选"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{454B4914-5846-45F9-B52A-B309CC94AB39}">
-      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{282D08AB-46F6-4101-8289-B05E4FFC5AD5}">
-      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,无"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{1092353B-7776-41F2-A77D-38BBDA6428BE}">
       <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{85BB47DD-831F-49AA-A119-9B1ECA9C830B}">
+      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,专业课,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
